--- a/タンパク質デザインツール一覧.xlsx
+++ b/タンパク質デザインツール一覧.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D0198\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitsui365-my.sharepoint.com/personal/yut_abe_mitsui_com/Documents/移行フォルダー/★Work-X勉強会/第37回Work-X勉強会_AlphaProteo_20241220/★AlphaProteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53669919-313F-45E9-B2C8-3AFF353B1502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DA06CE12-A6C5-4417-89AC-4092B247DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A4B977-E586-4766-8C30-065F9A7419BD}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="375" windowWidth="28800" windowHeight="19785" xr2:uid="{F2FC31E6-147E-4773-9C26-264202498F05}"/>
+    <workbookView xWindow="4515" yWindow="3720" windowWidth="32295" windowHeight="13245" activeTab="2" xr2:uid="{F2FC31E6-147E-4773-9C26-264202498F05}"/>
   </bookViews>
   <sheets>
     <sheet name="タンパク質デザインツール" sheetId="1" r:id="rId1"/>
     <sheet name="タンパク質言語モデル" sheetId="2" r:id="rId2"/>
+    <sheet name="中国のDeepseekとの比較表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>プログラム名</t>
     <rPh sb="5" eb="6">
@@ -46,10 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モデリング・カテゴリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Colaboratory notebook</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,6 +69,10 @@
   </si>
   <si>
     <t>BindCraft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -86,12 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ProteinMPNN</t>
-  </si>
-  <si>
-    <t>ProteinMPNN in jax!</t>
-  </si>
-  <si>
     <t>LigandMPNN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -144,33 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アミノ酸配列設計</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アミノ酸設計配列の
-フォールディング</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ESM2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,13 +156,73 @@
   </si>
   <si>
     <t>CARP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ESM-1b </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transformer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８M～１５M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１００M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８５M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２６M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６４０M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６５０M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UniRef50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UniRef
+Mgnify
+JGI
+Observed Antibody Space
+PDB
+AlphaFold DB
+ESMAtlas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UniRef50
+Uniclust30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OAS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="22"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="BIZ UDPゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -207,22 +235,424 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ESM-1b </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基盤</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>基盤</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Transformer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CNN</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パラメータ数</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学習データ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．４B～７B
+９８B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zebra Logic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPT-4o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AIME </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（pass@1）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>LiveCodeBench</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+　（2024.8-2024.11）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Codeforces　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（Rating）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>GPQA　Diamond</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　(pass@1）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>MATH-500</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（greedy）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Claude3.5
+Sonnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeepSeek
+R1-Lite-Preview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeepSeek 
+V2.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Qwen
+2.5-72B
+Instruct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenA o1
+preview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/RosettaCommons/Rfdiffusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/sokrypton/ColabDesign/blob/v1.1.1/rf/examples/diffusion_foldcond.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/baker-laboratory/rf_diffusion_all_atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/chroma-core/chroma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/martinpacesa/BindCraft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProteinMPNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/dauparas/ProteinMPNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProteinMPNN in jax!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/sokrypton/ColabDesign/blob/v1.1.0/mpnn/examples/proteinmpnn_in_jax.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/dauparas/LigandMPNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/google-deepmind/alphafold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/sokrypton/ColabFold/blob/main/batch/AlphaFold2_batch.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sokrypton/ColabFold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アミノ酸
+配列設計</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アミノ酸
+設計配列の
+フォールディング</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/YoshitakaMo/localcolabfold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/google-deepmind/alphafold3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://alphafoldserver.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/baker-laboratory/RoseTTAFold-All-Atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/evolutionaryscale/esm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://rosettacommons.org/software/download/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/sokrypton/ColabDesign/blob/v1.1.1/rf/examples/diffusion.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sokrypton/colabdesight/tree/main/rf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/generatebio/chroma/blob/main/notebooks/chromademo.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/martinpacesa/bindcraft/blob/main/notebooks/bindcraft.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/dauparas/proteinmpnn/blob/main/cloab_notebooks/quickdemo.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sokrypton/colabdesight/tree/main/mpnn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/ullahsamee/ligandmpnn_colab/blob/main/ligandmpnn_cloab.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/github/evolutionaryscale/esm/blob/main/example/generate.ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデリング
+カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/esm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/oxpig/ablang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/jeffreyruffolo/antiberty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/protein-seaquence-models</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -230,7 +660,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +696,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Amasis MT Pro Black"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Amasis MT Pro Black"/>
@@ -280,7 +708,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="BIZ UDPゴシック"/>
@@ -288,39 +715,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="BIZ UDPゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Amasis MT Pro Black"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="BIZ UDPゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -331,13 +729,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="BIZ UDPゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -345,8 +736,152 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Amasis MT Pro Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Amasis MT Pro Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Amasis MT Pro Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Amasis MT Pro Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Amasis MT Pro Black"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,24 +926,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -410,81 +963,625 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,6 +1595,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF2F9F2-DBD1-E2BD-F113-8640D91F007A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849100" y="496771"/>
+          <a:ext cx="6829425" cy="5281256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2146AE-3E61-41A0-B845-68D68E76FEB2}">
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -828,333 +1974,774 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81" style="1" customWidth="1"/>
+    <col min="4" max="4" width="175.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="69"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="66"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="66"/>
+      <c r="C6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="66"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="66"/>
+      <c r="C10" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="66"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="66"/>
+      <c r="C12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="67"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="60"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="60"/>
+      <c r="C16" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="60"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="60"/>
+      <c r="C18" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="60"/>
+      <c r="C20" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="61"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="27" x14ac:dyDescent="0.4">
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" ht="27" x14ac:dyDescent="0.4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="27" x14ac:dyDescent="0.4">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" ht="27" x14ac:dyDescent="0.4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="2:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="D22" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="71"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="71"/>
+      <c r="C24" s="55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="71"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="71"/>
+      <c r="C26" s="75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="11" t="s">
+      <c r="D26" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="71"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="71"/>
+      <c r="C28" s="54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B25" s="14"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="2:3" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="14"/>
-      <c r="C26" s="12" t="s">
+      <c r="D28" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="71"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="71"/>
+      <c r="C30" s="52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B28" s="14"/>
-      <c r="C28" s="5" t="s">
+      <c r="D30" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="71"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="51"/>
+    </row>
+    <row r="32" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="71"/>
+      <c r="C32" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B29" s="14"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B30" s="14"/>
-      <c r="C30" s="5" t="s">
+      <c r="D32" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="50"/>
+    </row>
+    <row r="33" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="71"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="51"/>
+    </row>
+    <row r="34" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B31" s="14"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B32" s="14"/>
-      <c r="C32" s="5" t="s">
+      <c r="D34" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="50"/>
+    </row>
+    <row r="35" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="73"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="51"/>
+    </row>
+    <row r="36" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="73"/>
+      <c r="C36" s="52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B33" s="14"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B34" s="14"/>
-      <c r="C34" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B35" s="14"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B36" s="14"/>
-      <c r="C36" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="27" x14ac:dyDescent="0.4">
-      <c r="B37" s="14"/>
-      <c r="C37" s="5"/>
+      <c r="D36" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="50"/>
+    </row>
+    <row r="37" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="74"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="41">
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B37"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{C70AAF95-CD05-4ECB-8645-38C46258966A}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{F4D1E382-0D0F-4B10-A88A-016A269D92D4}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{952BE115-D10D-44C1-8C06-63C94B727100}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{D9680E93-8646-42E2-91E6-486C10351E67}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{A30FE976-363D-4C71-A85A-FC44C3621F30}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{6DF0BE27-91EA-4542-8D40-283B9076E10A}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{C328E802-C18F-414D-94C1-94940D0B8637}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{407956EC-79B5-4D67-962E-9D9825BF7B49}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{AADD8459-B22D-4C17-94F7-B5150A7EDCA7}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{30296FB0-9D35-4CA1-954B-FDB4E9E67A2F}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{937446C1-9930-4AB3-9C30-595A8DBF5B99}"/>
+    <hyperlink ref="D27" r:id="rId12" xr:uid="{6C539131-4753-4AA9-A92B-F9B3D4963896}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{27132FEF-FA9A-4E56-927B-904E59E535C2}"/>
+    <hyperlink ref="D30" r:id="rId14" xr:uid="{E0483D3E-EFD9-4F07-85BD-006170C5087A}"/>
+    <hyperlink ref="D31" r:id="rId15" xr:uid="{185124B7-64D9-4609-941B-FEB9C4BB3D07}"/>
+    <hyperlink ref="D32" r:id="rId16" xr:uid="{F102E449-9A3C-49C1-AC05-A0DCC415EC90}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{12FF30E4-C0C9-48A9-B309-B83B6C9908DF}"/>
+    <hyperlink ref="D36" r:id="rId18" xr:uid="{0CA7BD77-C659-46AF-915F-B75DE29F3FC1}"/>
+    <hyperlink ref="D5" r:id="rId19" xr:uid="{D9EF43A6-5E4A-4F2B-BA30-C9332901F593}"/>
+    <hyperlink ref="D6" r:id="rId20" xr:uid="{8A0B43CD-0385-4836-B400-CF1641962295}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{6305A912-1FF6-4114-9ABC-1A38EF1A1BCF}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{0BE347C6-6857-4C3B-9BAC-157FF7F67D81}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{97222F70-20BB-42D3-907F-D7824AFB5833}"/>
+    <hyperlink ref="D16" r:id="rId24" xr:uid="{C4305DDF-A031-461F-BBF2-60CB7F542D8B}"/>
+    <hyperlink ref="D21" r:id="rId25" xr:uid="{D0CC69E3-F5D2-49A7-9BA2-5630A4164512}"/>
+    <hyperlink ref="D35" r:id="rId26" xr:uid="{26B4DA55-F340-45F8-BAB0-7FE6D4E2B3D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE54E3E2-4FEF-4F6F-AC94-447EE5EAA856}">
-  <dimension ref="B3:C17"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:6" ht="30" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="32.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="32.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="192" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="32.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="32.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="33" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="2:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{3185407B-C2D6-43C4-B587-52D8361F8245}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{F371909D-E73C-4048-97B6-F0A49EFC9470}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{719AB177-EA01-4B2D-929A-CB3BD75CB0C4}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{2C39C4B3-CC14-4879-BB1E-EB8F8D52CB28}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{87A1262C-0760-448B-A84F-F0ADBD847594}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{0DC40209-78C0-4193-AD2D-E82E3D9334E5}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{9F5F45A1-8CEC-4D3C-82F2-8195E3B0FBE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC115253-76DD-4F67-9E1B-577647CE67EC}">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="36">
+        <v>52.5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>44.6</v>
+      </c>
+      <c r="E4" s="26">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F4" s="27">
+        <v>16</v>
+      </c>
+      <c r="G4" s="27">
+        <v>23.3</v>
+      </c>
+      <c r="H4" s="28">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="37">
+        <v>91.6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>85.5</v>
+      </c>
+      <c r="E5" s="18">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F5" s="19">
+        <v>78.3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>83.1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="37">
+        <v>58.5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>73.3</v>
+      </c>
+      <c r="E6" s="18">
+        <v>53.6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>65</v>
+      </c>
+      <c r="G6" s="19">
+        <v>49</v>
+      </c>
+      <c r="H6" s="20">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1480</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1428</v>
+      </c>
+      <c r="E7" s="18">
+        <v>759</v>
+      </c>
+      <c r="F7" s="21">
+        <v>717</v>
+      </c>
+      <c r="G7" s="21">
+        <v>732</v>
+      </c>
+      <c r="H7" s="22">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="37">
+        <v>51.6</v>
+      </c>
+      <c r="D8" s="18">
+        <v>53.6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>33.4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G8" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="H8" s="20">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="38">
+        <v>56.6</v>
+      </c>
+      <c r="D9" s="23">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E9" s="23">
+        <v>28.2</v>
+      </c>
+      <c r="F9" s="24">
+        <v>33.4</v>
+      </c>
+      <c r="G9" s="24">
+        <v>26.6</v>
+      </c>
+      <c r="H9" s="25">
+        <v>22.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>